--- a/fspm-wheat/example/NEMA/NEMA_H3/inputs/Generate_inputs.xlsx
+++ b/fspm-wheat/example/NEMA/NEMA_H3/inputs/Generate_inputs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mngauthier\Documents\Marion_These\Modeles\fspm-wheat\trunk\example\NEMA_H3\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gyoso.cho.TIRD\source\WheatFspm\WheatFspm\fspm-wheat\example\NEMA\NEMA_H3\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="179">
   <si>
     <t>plant</t>
   </si>
@@ -731,29 +731,33 @@
   <si>
     <t>grain</t>
   </si>
+  <si>
+    <t>% DM</t>
+    <phoneticPr fontId="23"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="0.000E+00"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
+    <numFmt numFmtId="179" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -761,7 +765,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -769,7 +773,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -777,14 +781,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -811,7 +815,7 @@
     <font>
       <sz val="11"/>
       <color theme="2" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -819,7 +823,7 @@
       <b/>
       <sz val="11"/>
       <color theme="2" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -828,21 +832,21 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -850,34 +854,34 @@
       <b/>
       <sz val="11"/>
       <color theme="0" tint="-0.34998626667073579"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.34998626667073579"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -897,15 +901,22 @@
     <font>
       <sz val="8"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.34998626667073579"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1189,7 +1200,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1230,10 +1241,10 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1244,7 +1255,7 @@
     <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1263,7 +1274,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1291,7 +1302,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1303,8 +1314,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
+    <cellStyle name="パーセント" xfId="1" builtinId="5"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1320,7 +1331,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1587,22 +1598,23 @@
   </sheetPr>
   <dimension ref="A1:BD58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C29" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="H7" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.85546875" customWidth="1"/>
-    <col min="35" max="35" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.125" customWidth="1"/>
+    <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.875" customWidth="1"/>
+    <col min="35" max="35" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="21.75" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="12" bestFit="1" customWidth="1"/>
     <col min="47" max="48" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A1" s="48" t="s">
         <v>111</v>
       </c>
@@ -1620,7 +1632,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:56" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:56" s="29" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="51" t="s">
         <v>111</v>
       </c>
@@ -1639,7 +1651,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="4" spans="1:56" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="95" t="s">
         <v>69</v>
       </c>
@@ -1807,7 +1819,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A5" s="95"/>
       <c r="K5" s="37"/>
       <c r="L5" s="37"/>
@@ -1874,7 +1886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A6" s="95"/>
       <c r="K6" s="37"/>
       <c r="L6" s="37"/>
@@ -1939,7 +1951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A7" s="95"/>
       <c r="K7" s="37"/>
       <c r="L7" s="37"/>
@@ -2001,7 +2013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A8" s="95"/>
       <c r="K8" s="37"/>
       <c r="L8" s="37"/>
@@ -2063,7 +2075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A9" s="95"/>
       <c r="K9" s="37"/>
       <c r="L9" s="37"/>
@@ -2125,7 +2137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A10" s="95"/>
       <c r="K10" s="37"/>
       <c r="L10" s="37"/>
@@ -2187,7 +2199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A11" s="95"/>
       <c r="K11" s="37"/>
       <c r="L11" s="38"/>
@@ -2249,7 +2261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A12" s="95"/>
       <c r="K12" s="37"/>
       <c r="L12" s="38"/>
@@ -2311,7 +2323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
@@ -2324,7 +2336,7 @@
       <c r="AF13" s="1"/>
       <c r="AO13" s="1"/>
     </row>
-    <row r="14" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:56" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="95" t="s">
         <v>70</v>
       </c>
@@ -2425,7 +2437,7 @@
       <c r="AU14" s="39"/>
       <c r="AV14" s="39"/>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A15" s="95"/>
       <c r="B15">
         <v>1</v>
@@ -2536,7 +2548,7 @@
       <c r="AU15" s="82"/>
       <c r="AV15" s="82"/>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A16" s="95"/>
       <c r="B16">
         <v>1</v>
@@ -2648,7 +2660,7 @@
       <c r="AU16" s="83"/>
       <c r="AV16" s="83"/>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A17" s="95"/>
       <c r="B17">
         <v>1</v>
@@ -2722,7 +2734,7 @@
       <c r="AU17" s="83"/>
       <c r="AV17" s="83"/>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A18" s="95"/>
       <c r="B18">
         <v>1</v>
@@ -2796,7 +2808,7 @@
       <c r="AU18" s="83"/>
       <c r="AV18" s="83"/>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A19" s="95"/>
       <c r="B19">
         <v>1</v>
@@ -2870,7 +2882,7 @@
       <c r="AU19" s="83"/>
       <c r="AV19" s="83"/>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A20" s="95"/>
       <c r="B20">
         <v>1</v>
@@ -2944,7 +2956,7 @@
       <c r="AU20" s="83"/>
       <c r="AV20" s="83"/>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A21" s="95"/>
       <c r="B21">
         <v>1</v>
@@ -3018,7 +3030,7 @@
       <c r="AU21" s="83"/>
       <c r="AV21" s="83"/>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A22" s="95"/>
       <c r="B22">
         <v>1</v>
@@ -3092,7 +3104,7 @@
       <c r="AU22" s="83"/>
       <c r="AV22" s="83"/>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A23" s="95"/>
       <c r="B23">
         <v>1</v>
@@ -3166,7 +3178,7 @@
       <c r="AU23" s="83"/>
       <c r="AV23" s="83"/>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A24" s="95"/>
       <c r="B24">
         <v>1</v>
@@ -3240,7 +3252,7 @@
       <c r="AU24" s="83"/>
       <c r="AV24" s="83"/>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A25" s="95"/>
       <c r="B25">
         <v>1</v>
@@ -3314,7 +3326,7 @@
       <c r="AU25" s="83"/>
       <c r="AV25" s="83"/>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A26" s="95"/>
       <c r="B26">
         <v>1</v>
@@ -3388,7 +3400,7 @@
       <c r="AU26" s="83"/>
       <c r="AV26" s="83"/>
     </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A27" s="95"/>
       <c r="B27">
         <v>1</v>
@@ -3462,7 +3474,7 @@
       <c r="AU27" s="83"/>
       <c r="AV27" s="83"/>
     </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A28" s="95"/>
       <c r="B28">
         <v>1</v>
@@ -3536,7 +3548,7 @@
       <c r="AU28" s="83"/>
       <c r="AV28" s="83"/>
     </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A29" s="95"/>
       <c r="B29">
         <v>1</v>
@@ -3610,7 +3622,7 @@
       <c r="AU29" s="83"/>
       <c r="AV29" s="83"/>
     </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A30" s="95"/>
       <c r="B30">
         <v>1</v>
@@ -3702,7 +3714,7 @@
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
     </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A31" s="95"/>
       <c r="B31">
         <v>1</v>
@@ -3790,7 +3802,7 @@
       <c r="AF31" s="1"/>
       <c r="AG31" s="1"/>
     </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A32" s="95"/>
       <c r="B32">
         <v>1</v>
@@ -3883,7 +3895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A33" s="95"/>
       <c r="B33">
         <v>1</v>
@@ -3973,7 +3985,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A34" s="2"/>
       <c r="V34" s="77"/>
       <c r="W34" s="15"/>
@@ -3995,8 +4007,12 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A35" s="2"/>
+      <c r="M35">
+        <f>J30*W30</f>
+        <v>57.723541367107664</v>
+      </c>
       <c r="V35" s="29"/>
       <c r="W35" s="78"/>
       <c r="X35" s="17" t="s">
@@ -4024,7 +4040,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="36" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A36" s="2"/>
       <c r="X36" s="14">
         <v>0.1</v>
@@ -4034,7 +4050,7 @@
         <v>4.107690993168819</v>
       </c>
       <c r="AA36" s="42" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="AN36" s="65"/>
       <c r="AO36" s="89"/>
@@ -4053,7 +4069,7 @@
         <v>1512000</v>
       </c>
     </row>
-    <row r="37" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A37" s="2"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -4073,7 +4089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A38" s="95" t="s">
         <v>71</v>
       </c>
@@ -4130,7 +4146,7 @@
         <v>1.6949152542372881E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A39" s="95"/>
       <c r="B39">
         <v>1</v>
@@ -4180,7 +4196,7 @@
       <c r="AV39" s="7"/>
       <c r="AW39" s="7"/>
     </row>
-    <row r="40" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A40" s="95"/>
       <c r="B40">
         <v>1</v>
@@ -4216,7 +4232,7 @@
       <c r="AV40" s="7"/>
       <c r="AW40" s="7"/>
     </row>
-    <row r="41" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A41" s="95"/>
       <c r="B41">
         <v>1</v>
@@ -4293,7 +4309,7 @@
       <c r="AV41" s="7"/>
       <c r="AW41" s="7"/>
     </row>
-    <row r="42" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:51" x14ac:dyDescent="0.4">
       <c r="E42" s="45">
         <v>1468.2539682539682</v>
       </c>
@@ -4345,7 +4361,7 @@
       <c r="AV42" s="7"/>
       <c r="AW42" s="7"/>
     </row>
-    <row r="43" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:51" x14ac:dyDescent="0.4">
       <c r="F43" s="1"/>
       <c r="R43" s="96"/>
       <c r="S43" s="7" t="s">
@@ -4374,7 +4390,7 @@
       <c r="AV43" s="7"/>
       <c r="AW43" s="7"/>
     </row>
-    <row r="44" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:51" x14ac:dyDescent="0.4">
       <c r="D44" s="23" t="s">
         <v>77</v>
       </c>
@@ -4411,7 +4427,7 @@
       <c r="AV44" s="7"/>
       <c r="AW44" s="7"/>
     </row>
-    <row r="45" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:51" x14ac:dyDescent="0.4">
       <c r="D45" s="20" t="s">
         <v>78</v>
       </c>
@@ -4463,7 +4479,7 @@
       <c r="AV45" s="7"/>
       <c r="AW45" s="7"/>
     </row>
-    <row r="46" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:51" x14ac:dyDescent="0.4">
       <c r="D46" s="20" t="s">
         <v>75</v>
       </c>
@@ -4497,7 +4513,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:51" x14ac:dyDescent="0.4">
       <c r="O47" s="30" t="s">
         <v>107</v>
       </c>
@@ -4512,7 +4528,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="48" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:51" x14ac:dyDescent="0.4">
       <c r="O48" s="30" t="s">
         <v>108</v>
       </c>
@@ -4521,7 +4537,7 @@
         <v>1.0496889702348051</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="97" t="s">
         <v>147</v>
       </c>
@@ -4570,7 +4586,7 @@
       </c>
       <c r="Q49" s="27"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A50" s="97"/>
       <c r="B50">
         <v>1</v>
@@ -4612,7 +4628,7 @@
       <c r="P50" s="33"/>
       <c r="Q50" s="1"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.4">
       <c r="O51" s="30" t="s">
         <v>129</v>
       </c>
@@ -4621,7 +4637,7 @@
         <v>0.21279939781700719</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.4">
       <c r="O52" s="30" t="s">
         <v>130</v>
       </c>
@@ -4630,7 +4646,7 @@
         <v>7.838328132936645E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.4">
       <c r="O53" s="30" t="s">
         <v>109</v>
       </c>
@@ -4639,7 +4655,7 @@
         <v>0.22255305378783874</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.4">
       <c r="O54" s="30" t="s">
         <v>110</v>
       </c>
@@ -4648,7 +4664,7 @@
         <v>9.1724006383354539E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.4">
       <c r="O56" s="30" t="s">
         <v>125</v>
       </c>
@@ -4657,7 +4673,7 @@
         <v>5.5738060970822971</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.4">
       <c r="O57" s="30" t="s">
         <v>124</v>
       </c>
@@ -4666,7 +4682,7 @@
         <v>3.1374051614282616</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.4">
       <c r="O58" s="30" t="s">
         <v>128</v>
       </c>
@@ -4683,6 +4699,7 @@
     <mergeCell ref="R41:R46"/>
     <mergeCell ref="A49:A50"/>
   </mergeCells>
+  <phoneticPr fontId="23"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -4700,13 +4717,13 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B1" s="85" t="s">
         <v>150</v>
       </c>
@@ -4726,7 +4743,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>149</v>
       </c>
@@ -4751,7 +4768,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>161</v>
       </c>
@@ -4777,7 +4794,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>152</v>
       </c>
@@ -4803,10 +4820,11 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="E5" s="80"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="23"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4820,14 +4838,14 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="25" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C3" s="26" t="s">
         <v>92</v>
       </c>
@@ -4847,7 +4865,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>96</v>
       </c>
@@ -4873,7 +4891,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>11</v>
       </c>
@@ -4901,7 +4919,7 @@
         <v>107.14285714285714</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>10</v>
       </c>
@@ -4929,7 +4947,7 @@
         <v>88.888888888888886</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>9</v>
       </c>
@@ -4957,7 +4975,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>8</v>
       </c>
@@ -4985,7 +5003,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>11</v>
       </c>
@@ -5013,7 +5031,7 @@
         <v>4.0650406504065044</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>10</v>
       </c>
@@ -5041,7 +5059,7 @@
         <v>2.1052631578947367</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5069,7 +5087,7 @@
         <v>2.054794520547945</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>8</v>
       </c>
@@ -5097,7 +5115,7 @@
         <v>25.862068965517242</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>11</v>
       </c>
@@ -5125,7 +5143,7 @@
         <v>15.625</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>11</v>
       </c>
@@ -5153,7 +5171,7 @@
         <v>3.125</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>10</v>
       </c>
@@ -5181,7 +5199,7 @@
         <v>0.98684210526315796</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>9</v>
       </c>
@@ -5209,7 +5227,7 @@
         <v>0.91743119266055051</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>8</v>
       </c>
@@ -5237,7 +5255,7 @@
         <v>1.3513513513513513</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>168</v>
       </c>
@@ -5247,7 +5265,7 @@
       <c r="F18" s="24"/>
       <c r="I18" s="24"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>169</v>
       </c>
@@ -5255,7 +5273,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>148</v>
       </c>
@@ -5276,7 +5294,7 @@
         <v>71.428571428571431</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>167</v>
       </c>
@@ -5285,7 +5303,7 @@
       </c>
       <c r="I21" s="24"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>105</v>
       </c>
@@ -5305,7 +5323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D25" t="s">
         <v>127</v>
       </c>
@@ -5315,6 +5333,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="23"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5328,9 +5347,9 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>170</v>
       </c>
@@ -5342,12 +5361,13 @@
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="25" t="s">
         <v>171</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="23"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>